--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9626043333333335</v>
+        <v>0.9314806666666667</v>
       </c>
       <c r="H2">
-        <v>2.887813</v>
+        <v>2.794442</v>
       </c>
       <c r="I2">
-        <v>0.07904870764102041</v>
+        <v>0.06288211749152639</v>
       </c>
       <c r="J2">
-        <v>0.07904870764102043</v>
+        <v>0.06288211749152638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="N2">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="O2">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.210027751677</v>
+        <v>4.621981297034889</v>
       </c>
       <c r="R2">
-        <v>1.890249765093</v>
+        <v>41.597831673314</v>
       </c>
       <c r="S2">
-        <v>0.002222204805049935</v>
+        <v>0.06288211749152639</v>
       </c>
       <c r="T2">
-        <v>0.002222204805049935</v>
+        <v>0.06288211749152638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9626043333333335</v>
+        <v>2.399281333333333</v>
       </c>
       <c r="H3">
-        <v>2.887813</v>
+        <v>7.197844</v>
       </c>
       <c r="I3">
-        <v>0.07904870764102041</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="J3">
-        <v>0.07904870764102043</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.543204</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="N3">
-        <v>22.629612</v>
+        <v>14.885917</v>
       </c>
       <c r="O3">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>7.261120857617335</v>
+        <v>11.90516759588311</v>
       </c>
       <c r="R3">
-        <v>65.35008771855601</v>
+        <v>107.146508362948</v>
       </c>
       <c r="S3">
-        <v>0.07682650283597048</v>
+        <v>0.1619699646990985</v>
       </c>
       <c r="T3">
-        <v>0.07682650283597049</v>
+        <v>0.1619699646990985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.399281333333333</v>
+        <v>0.416663</v>
       </c>
       <c r="H4">
-        <v>7.197843999999999</v>
+        <v>1.249989</v>
       </c>
       <c r="I4">
-        <v>0.1970280852678732</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="J4">
-        <v>0.1970280852678733</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.218187</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="N4">
-        <v>0.6545609999999999</v>
+        <v>14.885917</v>
       </c>
       <c r="O4">
-        <v>0.02811184232310935</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.02811184232310934</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.523491996276</v>
+        <v>2.067470278323666</v>
       </c>
       <c r="R4">
-        <v>4.711427966483999</v>
+        <v>18.607232504913</v>
       </c>
       <c r="S4">
-        <v>0.005538822466274596</v>
+        <v>0.02812796084553394</v>
       </c>
       <c r="T4">
-        <v>0.005538822466274596</v>
+        <v>0.02812796084553394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.399281333333333</v>
+        <v>11.0657</v>
       </c>
       <c r="H5">
-        <v>7.197843999999999</v>
+        <v>33.1971</v>
       </c>
       <c r="I5">
-        <v>0.1970280852678732</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="J5">
-        <v>0.1970280852678733</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.543204</v>
+        <v>4.961972333333333</v>
       </c>
       <c r="N5">
-        <v>22.629612</v>
+        <v>14.885917</v>
       </c>
       <c r="O5">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9718881576768906</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>18.09826855072533</v>
+        <v>54.90769724896666</v>
       </c>
       <c r="R5">
-        <v>162.884416956528</v>
+        <v>494.1692752407</v>
       </c>
       <c r="S5">
-        <v>0.1914892628015986</v>
+        <v>0.7470199569638412</v>
       </c>
       <c r="T5">
-        <v>0.1914892628015987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.355348666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.066046</v>
-      </c>
-      <c r="I6">
-        <v>0.1113007253270695</v>
-      </c>
-      <c r="J6">
-        <v>0.1113007253270695</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.218187</v>
-      </c>
-      <c r="N6">
-        <v>0.6545609999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.02811184232310935</v>
-      </c>
-      <c r="P6">
-        <v>0.02811184232310934</v>
-      </c>
-      <c r="Q6">
-        <v>0.295719459534</v>
-      </c>
-      <c r="R6">
-        <v>2.661475135806</v>
-      </c>
-      <c r="S6">
-        <v>0.00312886844084228</v>
-      </c>
-      <c r="T6">
-        <v>0.00312886844084228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.355348666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.066046</v>
-      </c>
-      <c r="I7">
-        <v>0.1113007253270695</v>
-      </c>
-      <c r="J7">
-        <v>0.1113007253270695</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.543204</v>
-      </c>
-      <c r="N7">
-        <v>22.629612</v>
-      </c>
-      <c r="O7">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="P7">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="Q7">
-        <v>10.22367148379467</v>
-      </c>
-      <c r="R7">
-        <v>92.013043354152</v>
-      </c>
-      <c r="S7">
-        <v>0.1081718568862272</v>
-      </c>
-      <c r="T7">
-        <v>0.1081718568862272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.460122666666666</v>
-      </c>
-      <c r="H8">
-        <v>22.380368</v>
-      </c>
-      <c r="I8">
-        <v>0.6126224817640368</v>
-      </c>
-      <c r="J8">
-        <v>0.6126224817640369</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.218187</v>
-      </c>
-      <c r="N8">
-        <v>0.6545609999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.02811184232310935</v>
-      </c>
-      <c r="P8">
-        <v>0.02811184232310934</v>
-      </c>
-      <c r="Q8">
-        <v>1.627701784272</v>
-      </c>
-      <c r="R8">
-        <v>14.649316058448</v>
-      </c>
-      <c r="S8">
-        <v>0.01722194661094253</v>
-      </c>
-      <c r="T8">
-        <v>0.01722194661094253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.460122666666666</v>
-      </c>
-      <c r="H9">
-        <v>22.380368</v>
-      </c>
-      <c r="I9">
-        <v>0.6126224817640368</v>
-      </c>
-      <c r="J9">
-        <v>0.6126224817640369</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.543204</v>
-      </c>
-      <c r="N9">
-        <v>22.629612</v>
-      </c>
-      <c r="O9">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="P9">
-        <v>0.9718881576768906</v>
-      </c>
-      <c r="Q9">
-        <v>56.27322713969066</v>
-      </c>
-      <c r="R9">
-        <v>506.459044257216</v>
-      </c>
-      <c r="S9">
-        <v>0.5954005351530942</v>
-      </c>
-      <c r="T9">
-        <v>0.5954005351530943</v>
+        <v>0.7470199569638412</v>
       </c>
     </row>
   </sheetData>
